--- a/BABA.xlsx
+++ b/BABA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FF32E3-1B4B-42FE-A072-8176B4FC661B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01AE689-8063-4B2B-A734-8D5EBCACA8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="585" windowWidth="20010" windowHeight="14145" activeTab="1" xr2:uid="{23A73D2F-BF64-4B2C-9A6B-330C60ED7DBF}"/>
+    <workbookView xWindow="6045" yWindow="780" windowWidth="17745" windowHeight="14595" xr2:uid="{23A73D2F-BF64-4B2C-9A6B-330C60ED7DBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -710,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA65699E-D507-4BE7-B873-888DB36189B3}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -725,8 +725,8 @@
       <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3">
-        <v>121</v>
+      <c r="D3" s="8">
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -750,7 +750,7 @@
       </c>
       <c r="D5" s="3">
         <f>D4*D3</f>
-        <v>292184.75</v>
+        <v>282525.75</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -783,7 +783,7 @@
       </c>
       <c r="D8" s="3">
         <f>D5+D6-D7</f>
-        <v>292239.87</v>
+        <v>282580.87</v>
       </c>
     </row>
   </sheetData>
@@ -795,11 +795,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAAE1115-5B04-4E2D-8D07-DB8D1E8FDB42}">
   <dimension ref="A1:DJ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S21" sqref="S21"/>
+      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1069,23 +1069,23 @@
       </c>
       <c r="L14" s="3">
         <f>K30*$S$21</f>
-        <v>3.3072000000000004</v>
+        <v>2.2048000000000001</v>
       </c>
       <c r="M14" s="3">
         <f>L30*$S$21</f>
-        <v>1058.9667062400001</v>
+        <v>705.94296832000009</v>
       </c>
       <c r="N14" s="3">
         <f>M30*$S$21</f>
-        <v>2252.4979716992652</v>
+        <v>1490.4749285079047</v>
       </c>
       <c r="O14" s="3">
         <f>N30*$S$21</f>
-        <v>3595.8947457537338</v>
+        <v>2361.9928497127034</v>
       </c>
       <c r="P14" s="3">
         <f>O30*$S$21</f>
-        <v>5102.0250699985772</v>
+        <v>3327.0884326277032</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -1126,23 +1126,23 @@
       </c>
       <c r="L16" s="3">
         <f t="shared" ref="L16:P16" si="7">SUM(L13:L15)</f>
-        <v>22271.297600000005</v>
+        <v>22270.195200000006</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="7"/>
-        <v>25179.984503360021</v>
+        <v>24826.960765440021</v>
       </c>
       <c r="N16" s="3">
         <f t="shared" si="7"/>
-        <v>28341.704093976128</v>
+        <v>27579.681050784769</v>
       </c>
       <c r="O16" s="3">
         <f t="shared" si="7"/>
-        <v>31774.901355376467</v>
+        <v>30540.999459335439</v>
       </c>
       <c r="P16" s="3">
         <f t="shared" si="7"/>
-        <v>35499.23991596765</v>
+        <v>33724.303278596773</v>
       </c>
     </row>
     <row r="17" spans="1:114" x14ac:dyDescent="0.2">
@@ -1154,23 +1154,23 @@
       </c>
       <c r="L17" s="3">
         <f>L16*L24</f>
-        <v>4676.9724960000012</v>
+        <v>4676.7409920000009</v>
       </c>
       <c r="M17" s="3">
         <f t="shared" ref="M17:P17" si="8">M16*M24</f>
-        <v>5287.7967457056047</v>
+        <v>5213.6617607424041</v>
       </c>
       <c r="N17" s="3">
         <f t="shared" si="8"/>
-        <v>5951.7578597349866</v>
+        <v>5791.7330206648012</v>
       </c>
       <c r="O17" s="3">
         <f t="shared" si="8"/>
-        <v>6672.7292846290575</v>
+        <v>6413.6098864604419</v>
       </c>
       <c r="P17" s="3">
         <f t="shared" si="8"/>
-        <v>7454.8403823532062</v>
+        <v>7082.1036885053218</v>
       </c>
     </row>
     <row r="18" spans="1:114" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1184,415 +1184,415 @@
       </c>
       <c r="L18" s="4">
         <f t="shared" ref="L18:P18" si="9">L16-L17</f>
-        <v>17594.325104000003</v>
+        <v>17593.454208000003</v>
       </c>
       <c r="M18" s="4">
         <f t="shared" si="9"/>
-        <v>19892.187757654418</v>
+        <v>19613.299004697616</v>
       </c>
       <c r="N18" s="4">
         <f t="shared" si="9"/>
-        <v>22389.946234241143</v>
+        <v>21787.948030119969</v>
       </c>
       <c r="O18" s="4">
         <f t="shared" si="9"/>
-        <v>25102.172070747409</v>
+        <v>24127.389572874996</v>
       </c>
       <c r="P18" s="4">
         <f t="shared" si="9"/>
-        <v>28044.399533614443</v>
+        <v>26642.199590091452</v>
       </c>
       <c r="Q18" s="4">
         <f t="shared" ref="Q18:AV18" si="10">P18*(1+$S$22)</f>
-        <v>28324.843528950587</v>
+        <v>26908.621585992365</v>
       </c>
       <c r="R18" s="4">
         <f t="shared" si="10"/>
-        <v>28608.091964240091</v>
+        <v>27177.707801852288</v>
       </c>
       <c r="S18" s="4">
         <f t="shared" si="10"/>
-        <v>28894.172883882493</v>
+        <v>27449.484879870812</v>
       </c>
       <c r="T18" s="4">
         <f t="shared" si="10"/>
-        <v>29183.114612721318</v>
+        <v>27723.979728669521</v>
       </c>
       <c r="U18" s="4">
         <f t="shared" si="10"/>
-        <v>29474.945758848531</v>
+        <v>28001.219525956218</v>
       </c>
       <c r="V18" s="4">
         <f t="shared" si="10"/>
-        <v>29769.695216437016</v>
+        <v>28281.23172121578</v>
       </c>
       <c r="W18" s="4">
         <f t="shared" si="10"/>
-        <v>30067.392168601385</v>
+        <v>28564.044038427939</v>
       </c>
       <c r="X18" s="4">
         <f t="shared" si="10"/>
-        <v>30368.066090287401</v>
+        <v>28849.684478812218</v>
       </c>
       <c r="Y18" s="4">
         <f t="shared" si="10"/>
-        <v>30671.746751190276</v>
+        <v>29138.18132360034</v>
       </c>
       <c r="Z18" s="4">
         <f t="shared" si="10"/>
-        <v>30978.464218702178</v>
+        <v>29429.563136836343</v>
       </c>
       <c r="AA18" s="4">
         <f t="shared" si="10"/>
-        <v>31288.248860889202</v>
+        <v>29723.858768204707</v>
       </c>
       <c r="AB18" s="4">
         <f t="shared" si="10"/>
-        <v>31601.131349498093</v>
+        <v>30021.097355886755</v>
       </c>
       <c r="AC18" s="4">
         <f t="shared" si="10"/>
-        <v>31917.142662993076</v>
+        <v>30321.308329445623</v>
       </c>
       <c r="AD18" s="4">
         <f t="shared" si="10"/>
-        <v>32236.314089623007</v>
+        <v>30624.52141274008</v>
       </c>
       <c r="AE18" s="4">
         <f t="shared" si="10"/>
-        <v>32558.677230519239</v>
+        <v>30930.76662686748</v>
       </c>
       <c r="AF18" s="4">
         <f t="shared" si="10"/>
-        <v>32884.264002824435</v>
+        <v>31240.074293136156</v>
       </c>
       <c r="AG18" s="4">
         <f t="shared" si="10"/>
-        <v>33213.106642852683</v>
+        <v>31552.475036067517</v>
       </c>
       <c r="AH18" s="4">
         <f t="shared" si="10"/>
-        <v>33545.237709281209</v>
+        <v>31867.999786428194</v>
       </c>
       <c r="AI18" s="4">
         <f t="shared" si="10"/>
-        <v>33880.690086374023</v>
+        <v>32186.679784292475</v>
       </c>
       <c r="AJ18" s="4">
         <f t="shared" si="10"/>
-        <v>34219.496987237762</v>
+        <v>32508.546582135401</v>
       </c>
       <c r="AK18" s="4">
         <f t="shared" si="10"/>
-        <v>34561.691957110139</v>
+        <v>32833.632047956758</v>
       </c>
       <c r="AL18" s="4">
         <f t="shared" si="10"/>
-        <v>34907.308876681243</v>
+        <v>33161.968368436326</v>
       </c>
       <c r="AM18" s="4">
         <f t="shared" si="10"/>
-        <v>35256.381965448054</v>
+        <v>33493.588052120693</v>
       </c>
       <c r="AN18" s="4">
         <f t="shared" si="10"/>
-        <v>35608.945785102536</v>
+        <v>33828.523932641903</v>
       </c>
       <c r="AO18" s="4">
         <f t="shared" si="10"/>
-        <v>35965.035242953563</v>
+        <v>34166.809171968322</v>
       </c>
       <c r="AP18" s="4">
         <f t="shared" si="10"/>
-        <v>36324.685595383096</v>
+        <v>34508.477263688008</v>
       </c>
       <c r="AQ18" s="4">
         <f t="shared" si="10"/>
-        <v>36687.932451336928</v>
+        <v>34853.562036324889</v>
       </c>
       <c r="AR18" s="4">
         <f t="shared" si="10"/>
-        <v>37054.811775850299</v>
+        <v>35202.097656688136</v>
       </c>
       <c r="AS18" s="4">
         <f t="shared" si="10"/>
-        <v>37425.359893608802</v>
+        <v>35554.118633255021</v>
       </c>
       <c r="AT18" s="4">
         <f t="shared" si="10"/>
-        <v>37799.613492544893</v>
+        <v>35909.65981958757</v>
       </c>
       <c r="AU18" s="4">
         <f t="shared" si="10"/>
-        <v>38177.609627470345</v>
+        <v>36268.756417783443</v>
       </c>
       <c r="AV18" s="4">
         <f t="shared" si="10"/>
-        <v>38559.38572374505</v>
+        <v>36631.443981961274</v>
       </c>
       <c r="AW18" s="4">
         <f t="shared" ref="AW18:CB18" si="11">AV18*(1+$S$22)</f>
-        <v>38944.979580982501</v>
+        <v>36997.758421780891</v>
       </c>
       <c r="AX18" s="4">
         <f t="shared" si="11"/>
-        <v>39334.429376792323</v>
+        <v>37367.736005998697</v>
       </c>
       <c r="AY18" s="4">
         <f t="shared" si="11"/>
-        <v>39727.773670560244</v>
+        <v>37741.413366058681</v>
       </c>
       <c r="AZ18" s="4">
         <f t="shared" si="11"/>
-        <v>40125.051407265848</v>
+        <v>38118.827499719271</v>
       </c>
       <c r="BA18" s="4">
         <f t="shared" si="11"/>
-        <v>40526.301921338505</v>
+        <v>38500.015774716463</v>
       </c>
       <c r="BB18" s="4">
         <f t="shared" si="11"/>
-        <v>40931.564940551893</v>
+        <v>38885.015932463626</v>
       </c>
       <c r="BC18" s="4">
         <f t="shared" si="11"/>
-        <v>41340.880589957414</v>
+        <v>39273.866091788266</v>
       </c>
       <c r="BD18" s="4">
         <f t="shared" si="11"/>
-        <v>41754.289395856991</v>
+        <v>39666.604752706153</v>
       </c>
       <c r="BE18" s="4">
         <f t="shared" si="11"/>
-        <v>42171.83228981556</v>
+        <v>40063.270800233215</v>
       </c>
       <c r="BF18" s="4">
         <f t="shared" si="11"/>
-        <v>42593.55061271372</v>
+        <v>40463.903508235548</v>
       </c>
       <c r="BG18" s="4">
         <f t="shared" si="11"/>
-        <v>43019.486118840854</v>
+        <v>40868.542543317904</v>
       </c>
       <c r="BH18" s="4">
         <f t="shared" si="11"/>
-        <v>43449.680980029261</v>
+        <v>41277.227968751082</v>
       </c>
       <c r="BI18" s="4">
         <f t="shared" si="11"/>
-        <v>43884.177789829555</v>
+        <v>41690.000248438591</v>
       </c>
       <c r="BJ18" s="4">
         <f t="shared" si="11"/>
-        <v>44323.019567727853</v>
+        <v>42106.900250922976</v>
       </c>
       <c r="BK18" s="4">
         <f t="shared" si="11"/>
-        <v>44766.249763405132</v>
+        <v>42527.969253432209</v>
       </c>
       <c r="BL18" s="4">
         <f t="shared" si="11"/>
-        <v>45213.912261039186</v>
+        <v>42953.24894596653</v>
       </c>
       <c r="BM18" s="4">
         <f t="shared" si="11"/>
-        <v>45666.051383649581</v>
+        <v>43382.781435426194</v>
       </c>
       <c r="BN18" s="4">
         <f t="shared" si="11"/>
-        <v>46122.711897486079</v>
+        <v>43816.609249780457</v>
       </c>
       <c r="BO18" s="4">
         <f t="shared" si="11"/>
-        <v>46583.939016460943</v>
+        <v>44254.775342278263</v>
       </c>
       <c r="BP18" s="4">
         <f t="shared" si="11"/>
-        <v>47049.778406625555</v>
+        <v>44697.323095701046</v>
       </c>
       <c r="BQ18" s="4">
         <f t="shared" si="11"/>
-        <v>47520.276190691809</v>
+        <v>45144.296326658055</v>
       </c>
       <c r="BR18" s="4">
         <f t="shared" si="11"/>
-        <v>47995.478952598729</v>
+        <v>45595.739289924633</v>
       </c>
       <c r="BS18" s="4">
         <f t="shared" si="11"/>
-        <v>48475.433742124718</v>
+        <v>46051.69668282388</v>
       </c>
       <c r="BT18" s="4">
         <f t="shared" si="11"/>
-        <v>48960.188079545966</v>
+        <v>46512.21364965212</v>
       </c>
       <c r="BU18" s="4">
         <f t="shared" si="11"/>
-        <v>49449.789960341426</v>
+        <v>46977.335786148644</v>
       </c>
       <c r="BV18" s="4">
         <f t="shared" si="11"/>
-        <v>49944.287859944838</v>
+        <v>47447.10914401013</v>
       </c>
       <c r="BW18" s="4">
         <f t="shared" si="11"/>
-        <v>50443.730738544284</v>
+        <v>47921.58023545023</v>
       </c>
       <c r="BX18" s="4">
         <f t="shared" si="11"/>
-        <v>50948.168045929728</v>
+        <v>48400.796037804736</v>
       </c>
       <c r="BY18" s="4">
         <f t="shared" si="11"/>
-        <v>51457.649726389027</v>
+        <v>48884.803998182782</v>
       </c>
       <c r="BZ18" s="4">
         <f t="shared" si="11"/>
-        <v>51972.22622365292</v>
+        <v>49373.652038164611</v>
       </c>
       <c r="CA18" s="4">
         <f t="shared" si="11"/>
-        <v>52491.94848588945</v>
+        <v>49867.388558546256</v>
       </c>
       <c r="CB18" s="4">
         <f t="shared" si="11"/>
-        <v>53016.867970748346</v>
+        <v>50366.06244413172</v>
       </c>
       <c r="CC18" s="4">
         <f t="shared" ref="CC18:DJ18" si="12">CB18*(1+$S$22)</f>
-        <v>53547.036650455833</v>
+        <v>50869.723068573039</v>
       </c>
       <c r="CD18" s="4">
         <f t="shared" si="12"/>
-        <v>54082.507016960393</v>
+        <v>51378.420299258767</v>
       </c>
       <c r="CE18" s="4">
         <f t="shared" si="12"/>
-        <v>54623.332087129995</v>
+        <v>51892.204502251356</v>
       </c>
       <c r="CF18" s="4">
         <f t="shared" si="12"/>
-        <v>55169.565408001297</v>
+        <v>52411.126547273867</v>
       </c>
       <c r="CG18" s="4">
         <f t="shared" si="12"/>
-        <v>55721.261062081314</v>
+        <v>52935.237812746607</v>
       </c>
       <c r="CH18" s="4">
         <f t="shared" si="12"/>
-        <v>56278.47367270213</v>
+        <v>53464.590190874071</v>
       </c>
       <c r="CI18" s="4">
         <f t="shared" si="12"/>
-        <v>56841.258409429152</v>
+        <v>53999.236092782812</v>
       </c>
       <c r="CJ18" s="4">
         <f t="shared" si="12"/>
-        <v>57409.670993523447</v>
+        <v>54539.228453710639</v>
       </c>
       <c r="CK18" s="4">
         <f t="shared" si="12"/>
-        <v>57983.767703458681</v>
+        <v>55084.620738247744</v>
       </c>
       <c r="CL18" s="4">
         <f t="shared" si="12"/>
-        <v>58563.605380493267</v>
+        <v>55635.466945630222</v>
       </c>
       <c r="CM18" s="4">
         <f t="shared" si="12"/>
-        <v>59149.241434298201</v>
+        <v>56191.821615086526</v>
       </c>
       <c r="CN18" s="4">
         <f t="shared" si="12"/>
-        <v>59740.733848641183</v>
+        <v>56753.739831237392</v>
       </c>
       <c r="CO18" s="4">
         <f t="shared" si="12"/>
-        <v>60338.141187127592</v>
+        <v>57321.277229549763</v>
       </c>
       <c r="CP18" s="4">
         <f t="shared" si="12"/>
-        <v>60941.522598998868</v>
+        <v>57894.490001845261</v>
       </c>
       <c r="CQ18" s="4">
         <f t="shared" si="12"/>
-        <v>61550.937824988854</v>
+        <v>58473.434901863715</v>
       </c>
       <c r="CR18" s="4">
         <f t="shared" si="12"/>
-        <v>62166.447203238742</v>
+        <v>59058.169250882354</v>
       </c>
       <c r="CS18" s="4">
         <f t="shared" si="12"/>
-        <v>62788.111675271131</v>
+        <v>59648.750943391176</v>
       </c>
       <c r="CT18" s="4">
         <f t="shared" si="12"/>
-        <v>63415.992792023841</v>
+        <v>60245.238452825091</v>
       </c>
       <c r="CU18" s="4">
         <f t="shared" si="12"/>
-        <v>64050.152719944082</v>
+        <v>60847.690837353344</v>
       </c>
       <c r="CV18" s="4">
         <f t="shared" si="12"/>
-        <v>64690.654247143524</v>
+        <v>61456.167745726882</v>
       </c>
       <c r="CW18" s="4">
         <f t="shared" si="12"/>
-        <v>65337.56078961496</v>
+        <v>62070.729423184152</v>
       </c>
       <c r="CX18" s="4">
         <f t="shared" si="12"/>
-        <v>65990.936397511105</v>
+        <v>62691.436717415992</v>
       </c>
       <c r="CY18" s="4">
         <f t="shared" si="12"/>
-        <v>66650.845761486213</v>
+        <v>63318.351084590155</v>
       </c>
       <c r="CZ18" s="4">
         <f t="shared" si="12"/>
-        <v>67317.354219101078</v>
+        <v>63951.53459543606</v>
       </c>
       <c r="DA18" s="4">
         <f t="shared" si="12"/>
-        <v>67990.527761292091</v>
+        <v>64591.049941390418</v>
       </c>
       <c r="DB18" s="4">
         <f t="shared" si="12"/>
-        <v>68670.433038905016</v>
+        <v>65236.960440804323</v>
       </c>
       <c r="DC18" s="4">
         <f t="shared" si="12"/>
-        <v>69357.137369294069</v>
+        <v>65889.330045212366</v>
       </c>
       <c r="DD18" s="4">
         <f t="shared" si="12"/>
-        <v>70050.708742987015</v>
+        <v>66548.22334566449</v>
       </c>
       <c r="DE18" s="4">
         <f t="shared" si="12"/>
-        <v>70751.215830416884</v>
+        <v>67213.705579121131</v>
       </c>
       <c r="DF18" s="4">
         <f t="shared" si="12"/>
-        <v>71458.727988721061</v>
+        <v>67885.842634912347</v>
       </c>
       <c r="DG18" s="4">
         <f t="shared" si="12"/>
-        <v>72173.315268608276</v>
+        <v>68564.701061261469</v>
       </c>
       <c r="DH18" s="4">
         <f t="shared" si="12"/>
-        <v>72895.048421294356</v>
+        <v>69250.34807187409</v>
       </c>
       <c r="DI18" s="4">
         <f t="shared" si="12"/>
-        <v>73623.998905507295</v>
+        <v>69942.851552592838</v>
       </c>
       <c r="DJ18" s="4">
         <f t="shared" si="12"/>
-        <v>74360.238894562368</v>
+        <v>70642.280068118765</v>
       </c>
     </row>
     <row r="19" spans="1:114" x14ac:dyDescent="0.2">
@@ -1605,23 +1605,23 @@
       </c>
       <c r="L19" s="8">
         <f t="shared" ref="L19:P19" si="13">L18/L20</f>
-        <v>0.92936085325941142</v>
+        <v>0.92931485111696632</v>
       </c>
       <c r="M19" s="8">
         <f t="shared" si="13"/>
-        <v>1.0721813204305994</v>
+        <v>1.0571493231942268</v>
       </c>
       <c r="N19" s="8">
         <f t="shared" si="13"/>
-        <v>1.2314383143499756</v>
+        <v>1.1983286478072763</v>
       </c>
       <c r="O19" s="8">
         <f t="shared" si="13"/>
-        <v>1.4087853857339396</v>
+        <v>1.3540785924970231</v>
       </c>
       <c r="P19" s="8">
         <f t="shared" si="13"/>
-        <v>1.6060298224429173</v>
+        <v>1.5257294785676117</v>
       </c>
     </row>
     <row r="20" spans="1:114" x14ac:dyDescent="0.2">
@@ -1661,7 +1661,7 @@
         <v>37</v>
       </c>
       <c r="S21" s="7">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="22" spans="1:114" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1739,16 +1739,16 @@
       </c>
       <c r="S24" s="10">
         <f>NPV(S23,L18:XFD18)+Main!D6-Main!D7</f>
-        <v>392854.07137473399</v>
+        <v>375277.69579390174</v>
       </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.2">
       <c r="R25" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="S25" s="3">
+      <c r="S25" s="8">
         <f>S24/Main!D4</f>
-        <v>162.68933486892391</v>
+        <v>155.41057906363051</v>
       </c>
     </row>
     <row r="26" spans="1:114" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="S26" s="9">
         <f>S25/Main!D3-1</f>
-        <v>0.34453995759441236</v>
+        <v>0.32829554755239743</v>
       </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.2">
@@ -1856,23 +1856,23 @@
       </c>
       <c r="L30" s="3">
         <f>K30+L18</f>
-        <v>17649.445104000002</v>
+        <v>17648.574208000002</v>
       </c>
       <c r="M30" s="3">
         <f t="shared" ref="M30:P30" si="19">L30+M18</f>
-        <v>37541.63286165442</v>
+        <v>37261.873212697617</v>
       </c>
       <c r="N30" s="3">
         <f t="shared" si="19"/>
-        <v>59931.579095895562</v>
+        <v>59049.82124281759</v>
       </c>
       <c r="O30" s="3">
         <f t="shared" si="19"/>
-        <v>85033.751166642964</v>
+        <v>83177.210815692582</v>
       </c>
       <c r="P30" s="3">
         <f t="shared" si="19"/>
-        <v>113078.15070025741</v>
+        <v>109819.41040578403</v>
       </c>
     </row>
     <row r="31" spans="1:114" x14ac:dyDescent="0.2">

--- a/BABA.xlsx
+++ b/BABA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01AE689-8063-4B2B-A734-8D5EBCACA8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4CA63C-30DC-4E80-A5F9-C0803253F765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6045" yWindow="780" windowWidth="17745" windowHeight="14595" xr2:uid="{23A73D2F-BF64-4B2C-9A6B-330C60ED7DBF}"/>
+    <workbookView xWindow="1695" yWindow="375" windowWidth="22125" windowHeight="14250" activeTab="1" xr2:uid="{23A73D2F-BF64-4B2C-9A6B-330C60ED7DBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -55,10 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
-  <si>
-    <t>BABA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>Price</t>
   </si>
@@ -141,12 +138,6 @@
     <t>Revenue y/y</t>
   </si>
   <si>
-    <t>Revenue q/q</t>
-  </si>
-  <si>
-    <t>Tax Rate</t>
-  </si>
-  <si>
     <t>Gross Margin</t>
   </si>
   <si>
@@ -180,9 +171,6 @@
     <t>NPV</t>
   </si>
   <si>
-    <t>Diff</t>
-  </si>
-  <si>
     <t>Gross Profit</t>
   </si>
   <si>
@@ -193,13 +181,16 @@
   </si>
   <si>
     <t>8:1 ADR Ratio</t>
+  </si>
+  <si>
+    <t>Share</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,8 +198,7 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -216,6 +206,20 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -242,18 +246,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="38" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -284,7 +289,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -334,7 +339,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -708,82 +713,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA65699E-D507-4BE7-B873-888DB36189B3}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="11"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="10"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L2" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L3" s="11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
+      <c r="M3" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="8">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="M4" s="2">
         <f>19318/8</f>
         <v>2414.75</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
+      <c r="N4" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="2">
+        <f>M4*M3</f>
+        <v>289770</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3">
-        <f>D4*D3</f>
-        <v>282525.75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="M6" s="2">
         <f>20.1+31.53+7.4+27.86+6.03</f>
         <v>92.92</v>
       </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="N6" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="2">
         <f>6.7+6.9+16.9+4.9+2.4</f>
         <v>37.799999999999997</v>
       </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="3">
-        <f>D5+D6-D7</f>
-        <v>282580.87</v>
+      <c r="N7" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="2">
+        <f>M5+M6-M7</f>
+        <v>289825.12</v>
       </c>
     </row>
   </sheetData>
@@ -793,1119 +801,1099 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAAE1115-5B04-4E2D-8D07-DB8D1E8FDB42}">
-  <dimension ref="A1:DJ36"/>
+  <dimension ref="A1:DJ33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomRight" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.875" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="4.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="5">
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3">
         <v>2022</v>
       </c>
-      <c r="J1" s="5">
+      <c r="J1" s="3">
         <f>I1+1</f>
         <v>2023</v>
       </c>
-      <c r="K1" s="5">
+      <c r="K1" s="3">
         <f t="shared" ref="K1:P1" si="0">J1+1</f>
         <v>2024</v>
       </c>
-      <c r="L1" s="5">
+      <c r="L1" s="3">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="M1" s="5">
+      <c r="M1" s="3">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="N1" s="5">
+      <c r="N1" s="3">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="O1" s="5">
+      <c r="O1" s="3">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="P1" s="5">
+      <c r="P1" s="3">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2">
         <v>204891</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>124320</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K4" s="4">
         <v>137300</v>
       </c>
       <c r="L4" s="4">
-        <f>K4*1.04</f>
-        <v>142792</v>
+        <f>K4*1.06</f>
+        <v>145538</v>
       </c>
       <c r="M4" s="4">
-        <f t="shared" ref="M4:P4" si="1">L4*1.04</f>
-        <v>148503.67999999999</v>
+        <f t="shared" ref="M4:P4" si="1">L4*1.06</f>
+        <v>154270.28</v>
       </c>
       <c r="N4" s="4">
         <f t="shared" si="1"/>
-        <v>154443.8272</v>
+        <v>163526.49679999999</v>
       </c>
       <c r="O4" s="4">
         <f t="shared" si="1"/>
-        <v>160621.580288</v>
+        <v>173338.08660800001</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" si="1"/>
-        <v>167046.44349952001</v>
+        <v>183738.37180448003</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="3">
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="2">
         <v>82446</v>
       </c>
-      <c r="L5" s="3">
-        <f>L4*(1-L26)</f>
-        <v>85173.358399999997</v>
-      </c>
-      <c r="M5" s="3">
-        <f t="shared" ref="M5:P5" si="2">M4*(1-M26)</f>
-        <v>87981.058863359984</v>
-      </c>
-      <c r="N5" s="3">
-        <f t="shared" si="2"/>
-        <v>90870.865958073351</v>
-      </c>
-      <c r="O5" s="3">
-        <f t="shared" si="2"/>
-        <v>93844.541799480241</v>
-      </c>
-      <c r="P5" s="3">
-        <f t="shared" si="2"/>
-        <v>96903.842271178859</v>
+      <c r="L5" s="2">
+        <f>L4*(1-L23)</f>
+        <v>87102.033800000019</v>
+      </c>
+      <c r="M5" s="2">
+        <f>M4*(1-M23)</f>
+        <v>92018.445207140001</v>
+      </c>
+      <c r="N5" s="2">
+        <f>N4*(1-N23)</f>
+        <v>97209.617195166269</v>
+      </c>
+      <c r="O5" s="2">
+        <f>O4*(1-O23)</f>
+        <v>102690.71476497063</v>
+      </c>
+      <c r="P5" s="2">
+        <f>P4*(1-P23)</f>
+        <v>108477.72658010085</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="3">
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="2">
         <f>K4-K5</f>
         <v>54854</v>
       </c>
-      <c r="L6" s="3">
-        <f t="shared" ref="L6:P6" si="3">L4-L5</f>
-        <v>57618.641600000003</v>
-      </c>
-      <c r="M6" s="3">
-        <f t="shared" si="3"/>
-        <v>60522.621136640009</v>
-      </c>
-      <c r="N6" s="3">
-        <f t="shared" si="3"/>
-        <v>63572.961241926649</v>
-      </c>
-      <c r="O6" s="3">
-        <f t="shared" si="3"/>
-        <v>66777.038488519756</v>
-      </c>
-      <c r="P6" s="3">
-        <f t="shared" si="3"/>
-        <v>70142.601228341155</v>
+      <c r="L6" s="2">
+        <f t="shared" ref="L6:P6" si="2">L4-L5</f>
+        <v>58435.966199999981</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="2"/>
+        <v>62251.834792859998</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="2"/>
+        <v>66316.879604833724</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" si="2"/>
+        <v>70647.371843029381</v>
+      </c>
+      <c r="P6" s="2">
+        <f t="shared" si="2"/>
+        <v>75260.645224379186</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="2">
+        <v>7876</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="3">
-        <v>7876</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
+      <c r="K8" s="2">
+        <v>19847</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="3">
-        <v>19847</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
+      <c r="K9" s="2">
+        <v>6096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="3">
-        <v>6096</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
+      <c r="K10" s="2">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="3">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="2">
         <f>SUM(K7:K11)</f>
         <v>34797</v>
       </c>
-      <c r="L12" s="3">
-        <f>L4*L28</f>
-        <v>35826.991199999997</v>
-      </c>
-      <c r="M12" s="3">
-        <f t="shared" ref="M12:P12" si="4">M4*M28</f>
-        <v>36887.470139519988</v>
-      </c>
-      <c r="N12" s="3">
-        <f t="shared" si="4"/>
-        <v>37979.339255649786</v>
-      </c>
-      <c r="O12" s="3">
-        <f t="shared" si="4"/>
-        <v>39103.527697617021</v>
-      </c>
-      <c r="P12" s="3">
-        <f t="shared" si="4"/>
-        <v>40260.992117466485</v>
+      <c r="L12" s="2">
+        <f>L4*L25</f>
+        <v>36515.971799999992</v>
+      </c>
+      <c r="M12" s="2">
+        <f>M4*M25</f>
+        <v>38319.860806919991</v>
+      </c>
+      <c r="N12" s="2">
+        <f>N4*N25</f>
+        <v>40212.861930781837</v>
+      </c>
+      <c r="O12" s="2">
+        <f>O4*O25</f>
+        <v>42199.377310162468</v>
+      </c>
+      <c r="P12" s="2">
+        <f>P4*P25</f>
+        <v>44284.026549284499</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="3">
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="2">
         <f>K6-K12</f>
         <v>20057</v>
       </c>
-      <c r="L13" s="3">
-        <f t="shared" ref="L13:P13" si="5">L6-L12</f>
-        <v>21791.650400000006</v>
-      </c>
-      <c r="M13" s="3">
-        <f t="shared" si="5"/>
-        <v>23635.150997120021</v>
-      </c>
-      <c r="N13" s="3">
-        <f t="shared" si="5"/>
-        <v>25593.621986276863</v>
-      </c>
-      <c r="O13" s="3">
-        <f t="shared" si="5"/>
-        <v>27673.510790902736</v>
-      </c>
-      <c r="P13" s="3">
-        <f t="shared" si="5"/>
-        <v>29881.60911087467</v>
+      <c r="L13" s="2">
+        <f t="shared" ref="L13:P13" si="3">L6-L12</f>
+        <v>21919.994399999989</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="3"/>
+        <v>23931.973985940007</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" si="3"/>
+        <v>26104.017674051887</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" si="3"/>
+        <v>28447.994532866913</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" si="3"/>
+        <v>30976.618675094687</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="2">
         <f>2861-1323</f>
         <v>1538</v>
       </c>
-      <c r="L14" s="3">
-        <f>K30*$S$21</f>
-        <v>2.2048000000000001</v>
-      </c>
-      <c r="M14" s="3">
-        <f>L30*$S$21</f>
-        <v>705.94296832000009</v>
-      </c>
-      <c r="N14" s="3">
-        <f>M30*$S$21</f>
-        <v>1490.4749285079047</v>
-      </c>
-      <c r="O14" s="3">
-        <f>N30*$S$21</f>
-        <v>2361.9928497127034</v>
-      </c>
-      <c r="P14" s="3">
-        <f>O30*$S$21</f>
-        <v>3327.0884326277032</v>
+      <c r="L14" s="2">
+        <f>K27*$S$20</f>
+        <v>1.1024</v>
+      </c>
+      <c r="M14" s="2">
+        <f>L27*$S$20</f>
+        <v>359.46138879999978</v>
+      </c>
+      <c r="N14" s="2">
+        <f>M27*$S$20</f>
+        <v>755.8982235958398</v>
+      </c>
+      <c r="O14" s="2">
+        <f>N27*$S$20</f>
+        <v>1193.5862241342036</v>
+      </c>
+      <c r="P14" s="2">
+        <f>O27*$S$20</f>
+        <v>1675.9394493457414</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="2">
         <v>467</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="2">
         <f>K15*1.02</f>
         <v>476.34000000000003</v>
       </c>
-      <c r="M15" s="3">
-        <f t="shared" ref="M15:P15" si="6">L15*1.02</f>
+      <c r="M15" s="2">
+        <f t="shared" ref="M15:P15" si="4">L15*1.02</f>
         <v>485.86680000000007</v>
       </c>
-      <c r="N15" s="3">
-        <f t="shared" si="6"/>
+      <c r="N15" s="2">
+        <f t="shared" si="4"/>
         <v>495.58413600000006</v>
       </c>
-      <c r="O15" s="3">
-        <f t="shared" si="6"/>
+      <c r="O15" s="2">
+        <f t="shared" si="4"/>
         <v>505.49581872000005</v>
       </c>
-      <c r="P15" s="3">
-        <f t="shared" si="6"/>
+      <c r="P15" s="2">
+        <f t="shared" si="4"/>
         <v>515.60573509440007</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="3">
+      <c r="B16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="2">
         <f>SUM(K13:K15)</f>
         <v>22062</v>
       </c>
-      <c r="L16" s="3">
-        <f t="shared" ref="L16:P16" si="7">SUM(L13:L15)</f>
-        <v>22270.195200000006</v>
-      </c>
-      <c r="M16" s="3">
-        <f t="shared" si="7"/>
-        <v>24826.960765440021</v>
-      </c>
-      <c r="N16" s="3">
-        <f t="shared" si="7"/>
-        <v>27579.681050784769</v>
-      </c>
-      <c r="O16" s="3">
-        <f t="shared" si="7"/>
-        <v>30540.999459335439</v>
-      </c>
-      <c r="P16" s="3">
-        <f t="shared" si="7"/>
-        <v>33724.303278596773</v>
+      <c r="L16" s="2">
+        <f t="shared" ref="L16:P16" si="5">SUM(L13:L15)</f>
+        <v>22397.436799999989</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="5"/>
+        <v>24777.302174740005</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="5"/>
+        <v>27355.500033647728</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" si="5"/>
+        <v>30147.076575721116</v>
+      </c>
+      <c r="P16" s="2">
+        <f t="shared" si="5"/>
+        <v>33168.163859534827</v>
       </c>
     </row>
     <row r="17" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="2">
+        <v>4884</v>
+      </c>
+      <c r="L17" s="2">
+        <f>L16*0.2</f>
+        <v>4479.4873599999983</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" ref="M17:P17" si="6">M16*0.2</f>
+        <v>4955.4604349480014</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" si="6"/>
+        <v>5471.1000067295463</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" si="6"/>
+        <v>6029.4153151442233</v>
+      </c>
+      <c r="P17" s="2">
+        <f t="shared" si="6"/>
+        <v>6633.6327719069659</v>
+      </c>
+    </row>
+    <row r="18" spans="1:114" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="K17" s="3">
-        <v>4884</v>
-      </c>
-      <c r="L17" s="3">
-        <f>L16*L24</f>
-        <v>4676.7409920000009</v>
-      </c>
-      <c r="M17" s="3">
-        <f t="shared" ref="M17:P17" si="8">M16*M24</f>
-        <v>5213.6617607424041</v>
-      </c>
-      <c r="N17" s="3">
-        <f t="shared" si="8"/>
-        <v>5791.7330206648012</v>
-      </c>
-      <c r="O17" s="3">
-        <f t="shared" si="8"/>
-        <v>6413.6098864604419</v>
-      </c>
-      <c r="P17" s="3">
-        <f t="shared" si="8"/>
-        <v>7082.1036885053218</v>
-      </c>
-    </row>
-    <row r="18" spans="1:114" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="K18" s="4">
         <f>K16-K17</f>
         <v>17178</v>
       </c>
       <c r="L18" s="4">
-        <f t="shared" ref="L18:P18" si="9">L16-L17</f>
-        <v>17593.454208000003</v>
+        <f t="shared" ref="L18:P18" si="7">L16-L17</f>
+        <v>17917.949439999989</v>
       </c>
       <c r="M18" s="4">
-        <f t="shared" si="9"/>
-        <v>19613.299004697616</v>
+        <f t="shared" si="7"/>
+        <v>19821.841739792006</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" si="9"/>
-        <v>21787.948030119969</v>
+        <f t="shared" si="7"/>
+        <v>21884.400026918182</v>
       </c>
       <c r="O18" s="4">
-        <f t="shared" si="9"/>
-        <v>24127.389572874996</v>
+        <f t="shared" si="7"/>
+        <v>24117.661260576893</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" si="9"/>
-        <v>26642.199590091452</v>
+        <f t="shared" si="7"/>
+        <v>26534.53108762786</v>
       </c>
       <c r="Q18" s="4">
-        <f t="shared" ref="Q18:AV18" si="10">P18*(1+$S$22)</f>
-        <v>26908.621585992365</v>
+        <f>P18*(1+$S$21)</f>
+        <v>26799.876398504141</v>
       </c>
       <c r="R18" s="4">
-        <f t="shared" si="10"/>
-        <v>27177.707801852288</v>
+        <f>Q18*(1+$S$21)</f>
+        <v>27067.875162489181</v>
       </c>
       <c r="S18" s="4">
-        <f t="shared" si="10"/>
-        <v>27449.484879870812</v>
+        <f>R18*(1+$S$21)</f>
+        <v>27338.553914114073</v>
       </c>
       <c r="T18" s="4">
-        <f t="shared" si="10"/>
-        <v>27723.979728669521</v>
+        <f>S18*(1+$S$21)</f>
+        <v>27611.939453255214</v>
       </c>
       <c r="U18" s="4">
-        <f t="shared" si="10"/>
-        <v>28001.219525956218</v>
+        <f>T18*(1+$S$21)</f>
+        <v>27888.058847787768</v>
       </c>
       <c r="V18" s="4">
-        <f t="shared" si="10"/>
-        <v>28281.23172121578</v>
+        <f>U18*(1+$S$21)</f>
+        <v>28166.939436265646</v>
       </c>
       <c r="W18" s="4">
-        <f t="shared" si="10"/>
-        <v>28564.044038427939</v>
+        <f>V18*(1+$S$21)</f>
+        <v>28448.608830628302</v>
       </c>
       <c r="X18" s="4">
-        <f t="shared" si="10"/>
-        <v>28849.684478812218</v>
+        <f>W18*(1+$S$21)</f>
+        <v>28733.094918934585</v>
       </c>
       <c r="Y18" s="4">
-        <f t="shared" si="10"/>
-        <v>29138.18132360034</v>
+        <f>X18*(1+$S$21)</f>
+        <v>29020.42586812393</v>
       </c>
       <c r="Z18" s="4">
-        <f t="shared" si="10"/>
-        <v>29429.563136836343</v>
+        <f>Y18*(1+$S$21)</f>
+        <v>29310.630126805168</v>
       </c>
       <c r="AA18" s="4">
-        <f t="shared" si="10"/>
-        <v>29723.858768204707</v>
+        <f>Z18*(1+$S$21)</f>
+        <v>29603.736428073222</v>
       </c>
       <c r="AB18" s="4">
-        <f t="shared" si="10"/>
-        <v>30021.097355886755</v>
+        <f>AA18*(1+$S$21)</f>
+        <v>29899.773792353953</v>
       </c>
       <c r="AC18" s="4">
-        <f t="shared" si="10"/>
-        <v>30321.308329445623</v>
+        <f>AB18*(1+$S$21)</f>
+        <v>30198.771530277492</v>
       </c>
       <c r="AD18" s="4">
-        <f t="shared" si="10"/>
-        <v>30624.52141274008</v>
+        <f>AC18*(1+$S$21)</f>
+        <v>30500.759245580266</v>
       </c>
       <c r="AE18" s="4">
-        <f t="shared" si="10"/>
-        <v>30930.76662686748</v>
+        <f>AD18*(1+$S$21)</f>
+        <v>30805.76683803607</v>
       </c>
       <c r="AF18" s="4">
-        <f t="shared" si="10"/>
-        <v>31240.074293136156</v>
+        <f>AE18*(1+$S$21)</f>
+        <v>31113.824506416429</v>
       </c>
       <c r="AG18" s="4">
-        <f t="shared" si="10"/>
-        <v>31552.475036067517</v>
+        <f>AF18*(1+$S$21)</f>
+        <v>31424.962751480594</v>
       </c>
       <c r="AH18" s="4">
-        <f t="shared" si="10"/>
-        <v>31867.999786428194</v>
+        <f>AG18*(1+$S$21)</f>
+        <v>31739.212378995402</v>
       </c>
       <c r="AI18" s="4">
-        <f t="shared" si="10"/>
-        <v>32186.679784292475</v>
+        <f>AH18*(1+$S$21)</f>
+        <v>32056.604502785358</v>
       </c>
       <c r="AJ18" s="4">
-        <f t="shared" si="10"/>
-        <v>32508.546582135401</v>
+        <f>AI18*(1+$S$21)</f>
+        <v>32377.170547813213</v>
       </c>
       <c r="AK18" s="4">
-        <f t="shared" si="10"/>
-        <v>32833.632047956758</v>
+        <f>AJ18*(1+$S$21)</f>
+        <v>32700.942253291345</v>
       </c>
       <c r="AL18" s="4">
-        <f t="shared" si="10"/>
-        <v>33161.968368436326</v>
+        <f>AK18*(1+$S$21)</f>
+        <v>33027.951675824261</v>
       </c>
       <c r="AM18" s="4">
-        <f t="shared" si="10"/>
-        <v>33493.588052120693</v>
+        <f>AL18*(1+$S$21)</f>
+        <v>33358.231192582505</v>
       </c>
       <c r="AN18" s="4">
-        <f t="shared" si="10"/>
-        <v>33828.523932641903</v>
+        <f>AM18*(1+$S$21)</f>
+        <v>33691.813504508333</v>
       </c>
       <c r="AO18" s="4">
-        <f t="shared" si="10"/>
-        <v>34166.809171968322</v>
+        <f>AN18*(1+$S$21)</f>
+        <v>34028.731639553414</v>
       </c>
       <c r="AP18" s="4">
-        <f t="shared" si="10"/>
-        <v>34508.477263688008</v>
+        <f>AO18*(1+$S$21)</f>
+        <v>34369.018955948952</v>
       </c>
       <c r="AQ18" s="4">
-        <f t="shared" si="10"/>
-        <v>34853.562036324889</v>
+        <f>AP18*(1+$S$21)</f>
+        <v>34712.709145508445</v>
       </c>
       <c r="AR18" s="4">
-        <f t="shared" si="10"/>
-        <v>35202.097656688136</v>
+        <f>AQ18*(1+$S$21)</f>
+        <v>35059.836236963529</v>
       </c>
       <c r="AS18" s="4">
-        <f t="shared" si="10"/>
-        <v>35554.118633255021</v>
+        <f>AR18*(1+$S$21)</f>
+        <v>35410.434599333166</v>
       </c>
       <c r="AT18" s="4">
-        <f t="shared" si="10"/>
-        <v>35909.65981958757</v>
+        <f>AS18*(1+$S$21)</f>
+        <v>35764.538945326502</v>
       </c>
       <c r="AU18" s="4">
-        <f t="shared" si="10"/>
-        <v>36268.756417783443</v>
+        <f>AT18*(1+$S$21)</f>
+        <v>36122.184334779769</v>
       </c>
       <c r="AV18" s="4">
-        <f t="shared" si="10"/>
-        <v>36631.443981961274</v>
+        <f>AU18*(1+$S$21)</f>
+        <v>36483.406178127567</v>
       </c>
       <c r="AW18" s="4">
-        <f t="shared" ref="AW18:CB18" si="11">AV18*(1+$S$22)</f>
-        <v>36997.758421780891</v>
+        <f>AV18*(1+$S$21)</f>
+        <v>36848.240239908846</v>
       </c>
       <c r="AX18" s="4">
-        <f t="shared" si="11"/>
-        <v>37367.736005998697</v>
+        <f>AW18*(1+$S$21)</f>
+        <v>37216.722642307934</v>
       </c>
       <c r="AY18" s="4">
-        <f t="shared" si="11"/>
-        <v>37741.413366058681</v>
+        <f>AX18*(1+$S$21)</f>
+        <v>37588.889868731014</v>
       </c>
       <c r="AZ18" s="4">
-        <f t="shared" si="11"/>
-        <v>38118.827499719271</v>
+        <f>AY18*(1+$S$21)</f>
+        <v>37964.778767418327</v>
       </c>
       <c r="BA18" s="4">
-        <f t="shared" si="11"/>
-        <v>38500.015774716463</v>
+        <f>AZ18*(1+$S$21)</f>
+        <v>38344.426555092512</v>
       </c>
       <c r="BB18" s="4">
-        <f t="shared" si="11"/>
-        <v>38885.015932463626</v>
+        <f>BA18*(1+$S$21)</f>
+        <v>38727.870820643438</v>
       </c>
       <c r="BC18" s="4">
-        <f t="shared" si="11"/>
-        <v>39273.866091788266</v>
+        <f>BB18*(1+$S$21)</f>
+        <v>39115.14952884987</v>
       </c>
       <c r="BD18" s="4">
-        <f t="shared" si="11"/>
-        <v>39666.604752706153</v>
+        <f>BC18*(1+$S$21)</f>
+        <v>39506.301024138367</v>
       </c>
       <c r="BE18" s="4">
-        <f t="shared" si="11"/>
-        <v>40063.270800233215</v>
+        <f>BD18*(1+$S$21)</f>
+        <v>39901.364034379752</v>
       </c>
       <c r="BF18" s="4">
-        <f t="shared" si="11"/>
-        <v>40463.903508235548</v>
+        <f>BE18*(1+$S$21)</f>
+        <v>40300.377674723553</v>
       </c>
       <c r="BG18" s="4">
-        <f t="shared" si="11"/>
-        <v>40868.542543317904</v>
+        <f>BF18*(1+$S$21)</f>
+        <v>40703.381451470792</v>
       </c>
       <c r="BH18" s="4">
-        <f t="shared" si="11"/>
-        <v>41277.227968751082</v>
+        <f>BG18*(1+$S$21)</f>
+        <v>41110.415265985503</v>
       </c>
       <c r="BI18" s="4">
-        <f t="shared" si="11"/>
-        <v>41690.000248438591</v>
+        <f>BH18*(1+$S$21)</f>
+        <v>41521.519418645359</v>
       </c>
       <c r="BJ18" s="4">
-        <f t="shared" si="11"/>
-        <v>42106.900250922976</v>
+        <f>BI18*(1+$S$21)</f>
+        <v>41936.734612831809</v>
       </c>
       <c r="BK18" s="4">
-        <f t="shared" si="11"/>
-        <v>42527.969253432209</v>
+        <f>BJ18*(1+$S$21)</f>
+        <v>42356.101958960127</v>
       </c>
       <c r="BL18" s="4">
-        <f t="shared" si="11"/>
-        <v>42953.24894596653</v>
+        <f>BK18*(1+$S$21)</f>
+        <v>42779.662978549728</v>
       </c>
       <c r="BM18" s="4">
-        <f t="shared" si="11"/>
-        <v>43382.781435426194</v>
+        <f>BL18*(1+$S$21)</f>
+        <v>43207.459608335223</v>
       </c>
       <c r="BN18" s="4">
-        <f t="shared" si="11"/>
-        <v>43816.609249780457</v>
+        <f>BM18*(1+$S$21)</f>
+        <v>43639.534204418575</v>
       </c>
       <c r="BO18" s="4">
-        <f t="shared" si="11"/>
-        <v>44254.775342278263</v>
+        <f>BN18*(1+$S$21)</f>
+        <v>44075.929546462758</v>
       </c>
       <c r="BP18" s="4">
-        <f t="shared" si="11"/>
-        <v>44697.323095701046</v>
+        <f>BO18*(1+$S$21)</f>
+        <v>44516.688841927389</v>
       </c>
       <c r="BQ18" s="4">
-        <f t="shared" si="11"/>
-        <v>45144.296326658055</v>
+        <f>BP18*(1+$S$21)</f>
+        <v>44961.855730346666</v>
       </c>
       <c r="BR18" s="4">
-        <f t="shared" si="11"/>
-        <v>45595.739289924633</v>
+        <f>BQ18*(1+$S$21)</f>
+        <v>45411.474287650133</v>
       </c>
       <c r="BS18" s="4">
-        <f t="shared" si="11"/>
-        <v>46051.69668282388</v>
+        <f>BR18*(1+$S$21)</f>
+        <v>45865.589030526637</v>
       </c>
       <c r="BT18" s="4">
-        <f t="shared" si="11"/>
-        <v>46512.21364965212</v>
+        <f>BS18*(1+$S$21)</f>
+        <v>46324.244920831901</v>
       </c>
       <c r="BU18" s="4">
-        <f t="shared" si="11"/>
-        <v>46977.335786148644</v>
+        <f>BT18*(1+$S$21)</f>
+        <v>46787.487370040224</v>
       </c>
       <c r="BV18" s="4">
-        <f t="shared" si="11"/>
-        <v>47447.10914401013</v>
+        <f>BU18*(1+$S$21)</f>
+        <v>47255.36224374063</v>
       </c>
       <c r="BW18" s="4">
-        <f t="shared" si="11"/>
-        <v>47921.58023545023</v>
+        <f>BV18*(1+$S$21)</f>
+        <v>47727.915866178038</v>
       </c>
       <c r="BX18" s="4">
-        <f t="shared" si="11"/>
-        <v>48400.796037804736</v>
+        <f>BW18*(1+$S$21)</f>
+        <v>48205.195024839821</v>
       </c>
       <c r="BY18" s="4">
-        <f t="shared" si="11"/>
-        <v>48884.803998182782</v>
+        <f>BX18*(1+$S$21)</f>
+        <v>48687.246975088223</v>
       </c>
       <c r="BZ18" s="4">
-        <f t="shared" si="11"/>
-        <v>49373.652038164611</v>
+        <f>BY18*(1+$S$21)</f>
+        <v>49174.119444839103</v>
       </c>
       <c r="CA18" s="4">
-        <f t="shared" si="11"/>
-        <v>49867.388558546256</v>
+        <f>BZ18*(1+$S$21)</f>
+        <v>49665.860639287494</v>
       </c>
       <c r="CB18" s="4">
-        <f t="shared" si="11"/>
-        <v>50366.06244413172</v>
+        <f>CA18*(1+$S$21)</f>
+        <v>50162.519245680371</v>
       </c>
       <c r="CC18" s="4">
-        <f t="shared" ref="CC18:DJ18" si="12">CB18*(1+$S$22)</f>
-        <v>50869.723068573039</v>
+        <f>CB18*(1+$S$21)</f>
+        <v>50664.144438137177</v>
       </c>
       <c r="CD18" s="4">
-        <f t="shared" si="12"/>
-        <v>51378.420299258767</v>
+        <f>CC18*(1+$S$21)</f>
+        <v>51170.785882518547</v>
       </c>
       <c r="CE18" s="4">
-        <f t="shared" si="12"/>
-        <v>51892.204502251356</v>
+        <f>CD18*(1+$S$21)</f>
+        <v>51682.493741343729</v>
       </c>
       <c r="CF18" s="4">
-        <f t="shared" si="12"/>
-        <v>52411.126547273867</v>
+        <f>CE18*(1+$S$21)</f>
+        <v>52199.318678757169</v>
       </c>
       <c r="CG18" s="4">
-        <f t="shared" si="12"/>
-        <v>52935.237812746607</v>
+        <f>CF18*(1+$S$21)</f>
+        <v>52721.31186554474</v>
       </c>
       <c r="CH18" s="4">
-        <f t="shared" si="12"/>
-        <v>53464.590190874071</v>
+        <f>CG18*(1+$S$21)</f>
+        <v>53248.524984200187</v>
       </c>
       <c r="CI18" s="4">
-        <f t="shared" si="12"/>
-        <v>53999.236092782812</v>
+        <f>CH18*(1+$S$21)</f>
+        <v>53781.010234042187</v>
       </c>
       <c r="CJ18" s="4">
-        <f t="shared" si="12"/>
-        <v>54539.228453710639</v>
+        <f>CI18*(1+$S$21)</f>
+        <v>54318.820336382611</v>
       </c>
       <c r="CK18" s="4">
-        <f t="shared" si="12"/>
-        <v>55084.620738247744</v>
+        <f>CJ18*(1+$S$21)</f>
+        <v>54862.008539746435</v>
       </c>
       <c r="CL18" s="4">
-        <f t="shared" si="12"/>
-        <v>55635.466945630222</v>
+        <f>CK18*(1+$S$21)</f>
+        <v>55410.628625143901</v>
       </c>
       <c r="CM18" s="4">
-        <f t="shared" si="12"/>
-        <v>56191.821615086526</v>
+        <f>CL18*(1+$S$21)</f>
+        <v>55964.734911395339</v>
       </c>
       <c r="CN18" s="4">
-        <f t="shared" si="12"/>
-        <v>56753.739831237392</v>
+        <f>CM18*(1+$S$21)</f>
+        <v>56524.382260509294</v>
       </c>
       <c r="CO18" s="4">
-        <f t="shared" si="12"/>
-        <v>57321.277229549763</v>
+        <f>CN18*(1+$S$21)</f>
+        <v>57089.626083114388</v>
       </c>
       <c r="CP18" s="4">
-        <f t="shared" si="12"/>
-        <v>57894.490001845261</v>
+        <f>CO18*(1+$S$21)</f>
+        <v>57660.522343945529</v>
       </c>
       <c r="CQ18" s="4">
-        <f t="shared" si="12"/>
-        <v>58473.434901863715</v>
+        <f>CP18*(1+$S$21)</f>
+        <v>58237.127567384989</v>
       </c>
       <c r="CR18" s="4">
-        <f t="shared" si="12"/>
-        <v>59058.169250882354</v>
+        <f>CQ18*(1+$S$21)</f>
+        <v>58819.498843058842</v>
       </c>
       <c r="CS18" s="4">
-        <f t="shared" si="12"/>
-        <v>59648.750943391176</v>
+        <f>CR18*(1+$S$21)</f>
+        <v>59407.693831489429</v>
       </c>
       <c r="CT18" s="4">
-        <f t="shared" si="12"/>
-        <v>60245.238452825091</v>
+        <f>CS18*(1+$S$21)</f>
+        <v>60001.770769804323</v>
       </c>
       <c r="CU18" s="4">
-        <f t="shared" si="12"/>
-        <v>60847.690837353344</v>
+        <f>CT18*(1+$S$21)</f>
+        <v>60601.78847750237</v>
       </c>
       <c r="CV18" s="4">
-        <f t="shared" si="12"/>
-        <v>61456.167745726882</v>
+        <f>CU18*(1+$S$21)</f>
+        <v>61207.806362277392</v>
       </c>
       <c r="CW18" s="4">
-        <f t="shared" si="12"/>
-        <v>62070.729423184152</v>
+        <f>CV18*(1+$S$21)</f>
+        <v>61819.884425900163</v>
       </c>
       <c r="CX18" s="4">
-        <f t="shared" si="12"/>
-        <v>62691.436717415992</v>
+        <f>CW18*(1+$S$21)</f>
+        <v>62438.083270159164</v>
       </c>
       <c r="CY18" s="4">
-        <f t="shared" si="12"/>
-        <v>63318.351084590155</v>
+        <f>CX18*(1+$S$21)</f>
+        <v>63062.464102860758</v>
       </c>
       <c r="CZ18" s="4">
-        <f t="shared" si="12"/>
-        <v>63951.53459543606</v>
+        <f>CY18*(1+$S$21)</f>
+        <v>63693.08874388937</v>
       </c>
       <c r="DA18" s="4">
-        <f t="shared" si="12"/>
-        <v>64591.049941390418</v>
+        <f>CZ18*(1+$S$21)</f>
+        <v>64330.019631328265</v>
       </c>
       <c r="DB18" s="4">
-        <f t="shared" si="12"/>
-        <v>65236.960440804323</v>
+        <f>DA18*(1+$S$21)</f>
+        <v>64973.31982764155</v>
       </c>
       <c r="DC18" s="4">
-        <f t="shared" si="12"/>
-        <v>65889.330045212366</v>
+        <f>DB18*(1+$S$21)</f>
+        <v>65623.053025917965</v>
       </c>
       <c r="DD18" s="4">
-        <f t="shared" si="12"/>
-        <v>66548.22334566449</v>
+        <f>DC18*(1+$S$21)</f>
+        <v>66279.28355617715</v>
       </c>
       <c r="DE18" s="4">
-        <f t="shared" si="12"/>
-        <v>67213.705579121131</v>
+        <f>DD18*(1+$S$21)</f>
+        <v>66942.076391738927</v>
       </c>
       <c r="DF18" s="4">
-        <f t="shared" si="12"/>
-        <v>67885.842634912347</v>
+        <f>DE18*(1+$S$21)</f>
+        <v>67611.49715565631</v>
       </c>
       <c r="DG18" s="4">
-        <f t="shared" si="12"/>
-        <v>68564.701061261469</v>
+        <f>DF18*(1+$S$21)</f>
+        <v>68287.61212721288</v>
       </c>
       <c r="DH18" s="4">
-        <f t="shared" si="12"/>
-        <v>69250.34807187409</v>
+        <f>DG18*(1+$S$21)</f>
+        <v>68970.48824848501</v>
       </c>
       <c r="DI18" s="4">
-        <f t="shared" si="12"/>
-        <v>69942.851552592838</v>
+        <f>DH18*(1+$S$21)</f>
+        <v>69660.193130969856</v>
       </c>
       <c r="DJ18" s="4">
-        <f t="shared" si="12"/>
-        <v>70642.280068118765</v>
+        <f>DI18*(1+$S$21)</f>
+        <v>70356.795062279562</v>
       </c>
     </row>
     <row r="19" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2">
+        <v>19318</v>
+      </c>
+      <c r="L19" s="2">
+        <f>K19*0.98</f>
+        <v>18931.64</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" ref="M19:P19" si="8">L19*0.98</f>
+        <v>18553.0072</v>
+      </c>
+      <c r="N19" s="2">
+        <f t="shared" si="8"/>
+        <v>18181.947056000001</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" si="8"/>
+        <v>17818.308114880001</v>
+      </c>
+      <c r="P19" s="2">
+        <f t="shared" si="8"/>
+        <v>17461.941952582401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="5">
+        <f>K18/K19</f>
+        <v>0.88922248679987581</v>
+      </c>
+      <c r="L20" s="5">
+        <f>L18/L19</f>
+        <v>0.9464552167693866</v>
+      </c>
+      <c r="M20" s="5">
+        <f>M18/M19</f>
+        <v>1.0683896969431459</v>
+      </c>
+      <c r="N20" s="5">
+        <f>N18/N19</f>
+        <v>1.2036334700301736</v>
+      </c>
+      <c r="O20" s="5">
+        <f>O18/O19</f>
+        <v>1.3535326196563144</v>
+      </c>
+      <c r="P20" s="5">
+        <f>P18/P19</f>
+        <v>1.519563583459498</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S20" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="21" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="R21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S21" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="22" spans="1:114" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K19" s="8">
-        <f>K18/K20</f>
-        <v>0.88922248679987581</v>
-      </c>
-      <c r="L19" s="8">
-        <f t="shared" ref="L19:P19" si="13">L18/L20</f>
-        <v>0.92931485111696632</v>
-      </c>
-      <c r="M19" s="8">
-        <f t="shared" si="13"/>
-        <v>1.0571493231942268</v>
-      </c>
-      <c r="N19" s="8">
-        <f t="shared" si="13"/>
-        <v>1.1983286478072763</v>
-      </c>
-      <c r="O19" s="8">
-        <f t="shared" si="13"/>
-        <v>1.3540785924970231</v>
-      </c>
-      <c r="P19" s="8">
-        <f t="shared" si="13"/>
-        <v>1.5257294785676117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K20" s="3">
-        <v>19318</v>
-      </c>
-      <c r="L20" s="3">
-        <f>K20*0.98</f>
-        <v>18931.64</v>
-      </c>
-      <c r="M20" s="3">
-        <f t="shared" ref="M20:P20" si="14">L20*0.98</f>
-        <v>18553.0072</v>
-      </c>
-      <c r="N20" s="3">
-        <f t="shared" si="14"/>
-        <v>18181.947056000001</v>
-      </c>
-      <c r="O20" s="3">
-        <f t="shared" si="14"/>
-        <v>17818.308114880001</v>
-      </c>
-      <c r="P20" s="3">
-        <f t="shared" si="14"/>
-        <v>17461.941952582401</v>
-      </c>
-    </row>
-    <row r="21" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="K21" s="3">
-        <f>K20/8</f>
-        <v>2414.75</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S21" s="7">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="22" spans="1:114" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K22" s="6" t="e">
+      <c r="K22" s="7" t="e">
         <f>K4/J4-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="7">
         <f>L4/K4-1</f>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="M22" s="6">
-        <f t="shared" ref="M22:P22" si="15">M4/L4-1</f>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="N22" s="6">
-        <f t="shared" si="15"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="O22" s="6">
-        <f t="shared" si="15"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="P22" s="6">
-        <f t="shared" si="15"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="S22" s="7">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="23" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="B23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="S23" s="7">
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="M22" s="7">
+        <f>M4/L4-1</f>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="N22" s="7">
+        <f>N4/M4-1</f>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="O22" s="7">
+        <f>O4/N4-1</f>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="P22" s="7">
+        <f>P4/O4-1</f>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S22" s="6">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:114" ht="15" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K24" s="9">
-        <f>K17/K16</f>
-        <v>0.22137612183845526</v>
-      </c>
-      <c r="L24" s="9">
-        <v>0.21</v>
-      </c>
-      <c r="M24" s="9">
-        <v>0.21</v>
-      </c>
-      <c r="N24" s="9">
-        <v>0.21</v>
-      </c>
-      <c r="O24" s="9">
-        <v>0.21</v>
-      </c>
-      <c r="P24" s="9">
-        <v>0.21</v>
-      </c>
-      <c r="R24" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="S24" s="10">
-        <f>NPV(S23,L18:XFD18)+Main!D6-Main!D7</f>
-        <v>375277.69579390174</v>
-      </c>
-    </row>
-    <row r="25" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="R25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="S25" s="8">
-        <f>S24/Main!D4</f>
-        <v>155.41057906363051</v>
-      </c>
-    </row>
-    <row r="26" spans="1:114" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K26" s="6">
+    <row r="23" spans="1:114" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="8">
         <f>K6/K4</f>
         <v>0.39951930080116532</v>
       </c>
-      <c r="L26" s="6">
-        <f>K26*1.01</f>
-        <v>0.40351449380917698</v>
-      </c>
-      <c r="M26" s="6">
-        <f t="shared" ref="M26:P26" si="16">L26*1.01</f>
-        <v>0.40754963874726874</v>
-      </c>
-      <c r="N26" s="6">
-        <f t="shared" si="16"/>
-        <v>0.41162513513474142</v>
-      </c>
-      <c r="O26" s="6">
-        <f t="shared" si="16"/>
-        <v>0.41574138648608883</v>
-      </c>
-      <c r="P26" s="6">
-        <f t="shared" si="16"/>
-        <v>0.41989880035094973</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="S26" s="9">
-        <f>S25/Main!D3-1</f>
-        <v>0.32829554755239743</v>
-      </c>
-    </row>
-    <row r="27" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="B27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K27" s="9">
+      <c r="L23" s="8">
+        <f>K23*1.005</f>
+        <v>0.40151689730517109</v>
+      </c>
+      <c r="M23" s="8">
+        <f t="shared" ref="M23:P23" si="9">L23*1.005</f>
+        <v>0.40352448179169692</v>
+      </c>
+      <c r="N23" s="8">
+        <f t="shared" si="9"/>
+        <v>0.40554210420065534</v>
+      </c>
+      <c r="O23" s="8">
+        <f t="shared" si="9"/>
+        <v>0.4075698147216586</v>
+      </c>
+      <c r="P23" s="8">
+        <f t="shared" si="9"/>
+        <v>0.40960766379526686</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S23" s="9">
+        <f>NPV(S22,L18:XFD18)+Main!M6-Main!M7</f>
+        <v>374592.60589794361</v>
+      </c>
+    </row>
+    <row r="24" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="8">
         <f>K13/K4</f>
         <v>0.146081573197378</v>
       </c>
-      <c r="L27" s="9">
-        <f t="shared" ref="L27:P27" si="17">L13/L4</f>
-        <v>0.15261114348142757</v>
-      </c>
-      <c r="M27" s="9">
-        <f t="shared" si="17"/>
-        <v>0.15915532192279694</v>
-      </c>
-      <c r="N27" s="9">
-        <f t="shared" si="17"/>
-        <v>0.16571476147851419</v>
-      </c>
-      <c r="O27" s="9">
-        <f t="shared" si="17"/>
-        <v>0.1722901165664239</v>
-      </c>
-      <c r="P27" s="9">
-        <f t="shared" si="17"/>
-        <v>0.17888204313048145</v>
-      </c>
-    </row>
-    <row r="28" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="B28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K28" s="9">
+      <c r="L24" s="8">
+        <f>L13/L4</f>
+        <v>0.15061354697742163</v>
+      </c>
+      <c r="M24" s="8">
+        <f>M13/M4</f>
+        <v>0.15513016496722509</v>
+      </c>
+      <c r="N24" s="8">
+        <f>N13/N4</f>
+        <v>0.15963173054442811</v>
+      </c>
+      <c r="O24" s="8">
+        <f>O13/O4</f>
+        <v>0.1641185448019937</v>
+      </c>
+      <c r="P24" s="8">
+        <f>P13/P4</f>
+        <v>0.16859090657479853</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S24" s="5">
+        <f>S23/Main!M4</f>
+        <v>155.12686857767619</v>
+      </c>
+    </row>
+    <row r="25" spans="1:114" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="8">
         <f>K12/K4</f>
         <v>0.2534377276037873</v>
       </c>
-      <c r="L28" s="9">
-        <f>K28*0.99</f>
+      <c r="L25" s="8">
+        <f>K25*0.99</f>
         <v>0.25090335032774941</v>
       </c>
-      <c r="M28" s="9">
-        <f t="shared" ref="M28:P28" si="18">L28*0.99</f>
+      <c r="M25" s="8">
+        <f t="shared" ref="M25:P25" si="10">L25*0.99</f>
         <v>0.24839431682447191</v>
       </c>
-      <c r="N28" s="9">
-        <f t="shared" si="18"/>
+      <c r="N25" s="8">
+        <f t="shared" si="10"/>
         <v>0.2459103736562272</v>
       </c>
-      <c r="O28" s="9">
-        <f t="shared" si="18"/>
+      <c r="O25" s="8">
+        <f t="shared" si="10"/>
         <v>0.24345126991966493</v>
       </c>
-      <c r="P28" s="9">
-        <f t="shared" si="18"/>
+      <c r="P25" s="8">
+        <f t="shared" si="10"/>
         <v>0.24101675722046828</v>
       </c>
-    </row>
-    <row r="30" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="B30" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K30" s="3">
-        <f>K31-K32</f>
+      <c r="R25" s="2"/>
+      <c r="S25" s="8">
+        <f>S24/Main!M3-1</f>
+        <v>0.29272390481396826</v>
+      </c>
+    </row>
+    <row r="27" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" s="2">
+        <f>K28-K29</f>
         <v>55.120000000000005</v>
       </c>
-      <c r="L30" s="3">
-        <f>K30+L18</f>
-        <v>17648.574208000002</v>
-      </c>
-      <c r="M30" s="3">
-        <f t="shared" ref="M30:P30" si="19">L30+M18</f>
-        <v>37261.873212697617</v>
-      </c>
-      <c r="N30" s="3">
-        <f t="shared" si="19"/>
-        <v>59049.82124281759</v>
-      </c>
-      <c r="O30" s="3">
-        <f t="shared" si="19"/>
-        <v>83177.210815692582</v>
-      </c>
-      <c r="P30" s="3">
-        <f t="shared" si="19"/>
-        <v>109819.41040578403</v>
-      </c>
-    </row>
-    <row r="31" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="B31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K31" s="3">
+      <c r="L27" s="2">
+        <f>K27+L18</f>
+        <v>17973.069439999988</v>
+      </c>
+      <c r="M27" s="2">
+        <f>L27+M18</f>
+        <v>37794.91117979199</v>
+      </c>
+      <c r="N27" s="2">
+        <f>M27+N18</f>
+        <v>59679.311206710176</v>
+      </c>
+      <c r="O27" s="2">
+        <f>N27+O18</f>
+        <v>83796.972467287065</v>
+      </c>
+      <c r="P27" s="2">
+        <f>O27+P18</f>
+        <v>110331.50355491493</v>
+      </c>
+    </row>
+    <row r="28" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K28" s="2">
         <f>20.1+31.53+7.4+27.86+6.03</f>
         <v>92.92</v>
       </c>
     </row>
-    <row r="32" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="B32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+    <row r="29" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29" s="2">
         <f>6.7+6.9+16.9+4.9+2.4</f>
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="3" t="s">
-        <v>35</v>
+    <row r="31" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/BABA.xlsx
+++ b/BABA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4CA63C-30DC-4E80-A5F9-C0803253F765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218A56C5-9A32-46F8-8537-3AA648DBE42B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="375" windowWidth="22125" windowHeight="14250" activeTab="1" xr2:uid="{23A73D2F-BF64-4B2C-9A6B-330C60ED7DBF}"/>
+    <workbookView xWindow="2580" yWindow="1890" windowWidth="22620" windowHeight="13140" xr2:uid="{23A73D2F-BF64-4B2C-9A6B-330C60ED7DBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -715,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA65699E-D507-4BE7-B873-888DB36189B3}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="5">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -758,7 +758,7 @@
       </c>
       <c r="M5" s="2">
         <f>M4*M3</f>
-        <v>289770</v>
+        <v>282525.75</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -791,7 +791,7 @@
       </c>
       <c r="M8" s="2">
         <f>M5+M6-M7</f>
-        <v>289825.12</v>
+        <v>282580.87</v>
       </c>
     </row>
   </sheetData>
@@ -803,11 +803,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAAE1115-5B04-4E2D-8D07-DB8D1E8FDB42}">
   <dimension ref="A1:DJ33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O16" sqref="O16"/>
+      <selection pane="bottomRight" activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1211,395 +1211,395 @@
         <v>26534.53108762786</v>
       </c>
       <c r="Q18" s="4">
-        <f>P18*(1+$S$21)</f>
+        <f t="shared" ref="Q18:AV18" si="8">P18*(1+$S$21)</f>
         <v>26799.876398504141</v>
       </c>
       <c r="R18" s="4">
-        <f>Q18*(1+$S$21)</f>
+        <f t="shared" si="8"/>
         <v>27067.875162489181</v>
       </c>
       <c r="S18" s="4">
-        <f>R18*(1+$S$21)</f>
+        <f t="shared" si="8"/>
         <v>27338.553914114073</v>
       </c>
       <c r="T18" s="4">
-        <f>S18*(1+$S$21)</f>
+        <f t="shared" si="8"/>
         <v>27611.939453255214</v>
       </c>
       <c r="U18" s="4">
-        <f>T18*(1+$S$21)</f>
+        <f t="shared" si="8"/>
         <v>27888.058847787768</v>
       </c>
       <c r="V18" s="4">
-        <f>U18*(1+$S$21)</f>
+        <f t="shared" si="8"/>
         <v>28166.939436265646</v>
       </c>
       <c r="W18" s="4">
-        <f>V18*(1+$S$21)</f>
+        <f t="shared" si="8"/>
         <v>28448.608830628302</v>
       </c>
       <c r="X18" s="4">
-        <f>W18*(1+$S$21)</f>
+        <f t="shared" si="8"/>
         <v>28733.094918934585</v>
       </c>
       <c r="Y18" s="4">
-        <f>X18*(1+$S$21)</f>
+        <f t="shared" si="8"/>
         <v>29020.42586812393</v>
       </c>
       <c r="Z18" s="4">
-        <f>Y18*(1+$S$21)</f>
+        <f t="shared" si="8"/>
         <v>29310.630126805168</v>
       </c>
       <c r="AA18" s="4">
-        <f>Z18*(1+$S$21)</f>
+        <f t="shared" si="8"/>
         <v>29603.736428073222</v>
       </c>
       <c r="AB18" s="4">
-        <f>AA18*(1+$S$21)</f>
+        <f t="shared" si="8"/>
         <v>29899.773792353953</v>
       </c>
       <c r="AC18" s="4">
-        <f>AB18*(1+$S$21)</f>
+        <f t="shared" si="8"/>
         <v>30198.771530277492</v>
       </c>
       <c r="AD18" s="4">
-        <f>AC18*(1+$S$21)</f>
+        <f t="shared" si="8"/>
         <v>30500.759245580266</v>
       </c>
       <c r="AE18" s="4">
-        <f>AD18*(1+$S$21)</f>
+        <f t="shared" si="8"/>
         <v>30805.76683803607</v>
       </c>
       <c r="AF18" s="4">
-        <f>AE18*(1+$S$21)</f>
+        <f t="shared" si="8"/>
         <v>31113.824506416429</v>
       </c>
       <c r="AG18" s="4">
-        <f>AF18*(1+$S$21)</f>
+        <f t="shared" si="8"/>
         <v>31424.962751480594</v>
       </c>
       <c r="AH18" s="4">
-        <f>AG18*(1+$S$21)</f>
+        <f t="shared" si="8"/>
         <v>31739.212378995402</v>
       </c>
       <c r="AI18" s="4">
-        <f>AH18*(1+$S$21)</f>
+        <f t="shared" si="8"/>
         <v>32056.604502785358</v>
       </c>
       <c r="AJ18" s="4">
-        <f>AI18*(1+$S$21)</f>
+        <f t="shared" si="8"/>
         <v>32377.170547813213</v>
       </c>
       <c r="AK18" s="4">
-        <f>AJ18*(1+$S$21)</f>
+        <f t="shared" si="8"/>
         <v>32700.942253291345</v>
       </c>
       <c r="AL18" s="4">
-        <f>AK18*(1+$S$21)</f>
+        <f t="shared" si="8"/>
         <v>33027.951675824261</v>
       </c>
       <c r="AM18" s="4">
-        <f>AL18*(1+$S$21)</f>
+        <f t="shared" si="8"/>
         <v>33358.231192582505</v>
       </c>
       <c r="AN18" s="4">
-        <f>AM18*(1+$S$21)</f>
+        <f t="shared" si="8"/>
         <v>33691.813504508333</v>
       </c>
       <c r="AO18" s="4">
-        <f>AN18*(1+$S$21)</f>
+        <f t="shared" si="8"/>
         <v>34028.731639553414</v>
       </c>
       <c r="AP18" s="4">
-        <f>AO18*(1+$S$21)</f>
+        <f t="shared" si="8"/>
         <v>34369.018955948952</v>
       </c>
       <c r="AQ18" s="4">
-        <f>AP18*(1+$S$21)</f>
+        <f t="shared" si="8"/>
         <v>34712.709145508445</v>
       </c>
       <c r="AR18" s="4">
-        <f>AQ18*(1+$S$21)</f>
+        <f t="shared" si="8"/>
         <v>35059.836236963529</v>
       </c>
       <c r="AS18" s="4">
-        <f>AR18*(1+$S$21)</f>
+        <f t="shared" si="8"/>
         <v>35410.434599333166</v>
       </c>
       <c r="AT18" s="4">
-        <f>AS18*(1+$S$21)</f>
+        <f t="shared" si="8"/>
         <v>35764.538945326502</v>
       </c>
       <c r="AU18" s="4">
-        <f>AT18*(1+$S$21)</f>
+        <f t="shared" si="8"/>
         <v>36122.184334779769</v>
       </c>
       <c r="AV18" s="4">
-        <f>AU18*(1+$S$21)</f>
+        <f t="shared" si="8"/>
         <v>36483.406178127567</v>
       </c>
       <c r="AW18" s="4">
-        <f>AV18*(1+$S$21)</f>
+        <f t="shared" ref="AW18:CB18" si="9">AV18*(1+$S$21)</f>
         <v>36848.240239908846</v>
       </c>
       <c r="AX18" s="4">
-        <f>AW18*(1+$S$21)</f>
+        <f t="shared" si="9"/>
         <v>37216.722642307934</v>
       </c>
       <c r="AY18" s="4">
-        <f>AX18*(1+$S$21)</f>
+        <f t="shared" si="9"/>
         <v>37588.889868731014</v>
       </c>
       <c r="AZ18" s="4">
-        <f>AY18*(1+$S$21)</f>
+        <f t="shared" si="9"/>
         <v>37964.778767418327</v>
       </c>
       <c r="BA18" s="4">
-        <f>AZ18*(1+$S$21)</f>
+        <f t="shared" si="9"/>
         <v>38344.426555092512</v>
       </c>
       <c r="BB18" s="4">
-        <f>BA18*(1+$S$21)</f>
+        <f t="shared" si="9"/>
         <v>38727.870820643438</v>
       </c>
       <c r="BC18" s="4">
-        <f>BB18*(1+$S$21)</f>
+        <f t="shared" si="9"/>
         <v>39115.14952884987</v>
       </c>
       <c r="BD18" s="4">
-        <f>BC18*(1+$S$21)</f>
+        <f t="shared" si="9"/>
         <v>39506.301024138367</v>
       </c>
       <c r="BE18" s="4">
-        <f>BD18*(1+$S$21)</f>
+        <f t="shared" si="9"/>
         <v>39901.364034379752</v>
       </c>
       <c r="BF18" s="4">
-        <f>BE18*(1+$S$21)</f>
+        <f t="shared" si="9"/>
         <v>40300.377674723553</v>
       </c>
       <c r="BG18" s="4">
-        <f>BF18*(1+$S$21)</f>
+        <f t="shared" si="9"/>
         <v>40703.381451470792</v>
       </c>
       <c r="BH18" s="4">
-        <f>BG18*(1+$S$21)</f>
+        <f t="shared" si="9"/>
         <v>41110.415265985503</v>
       </c>
       <c r="BI18" s="4">
-        <f>BH18*(1+$S$21)</f>
+        <f t="shared" si="9"/>
         <v>41521.519418645359</v>
       </c>
       <c r="BJ18" s="4">
-        <f>BI18*(1+$S$21)</f>
+        <f t="shared" si="9"/>
         <v>41936.734612831809</v>
       </c>
       <c r="BK18" s="4">
-        <f>BJ18*(1+$S$21)</f>
+        <f t="shared" si="9"/>
         <v>42356.101958960127</v>
       </c>
       <c r="BL18" s="4">
-        <f>BK18*(1+$S$21)</f>
+        <f t="shared" si="9"/>
         <v>42779.662978549728</v>
       </c>
       <c r="BM18" s="4">
-        <f>BL18*(1+$S$21)</f>
+        <f t="shared" si="9"/>
         <v>43207.459608335223</v>
       </c>
       <c r="BN18" s="4">
-        <f>BM18*(1+$S$21)</f>
+        <f t="shared" si="9"/>
         <v>43639.534204418575</v>
       </c>
       <c r="BO18" s="4">
-        <f>BN18*(1+$S$21)</f>
+        <f t="shared" si="9"/>
         <v>44075.929546462758</v>
       </c>
       <c r="BP18" s="4">
-        <f>BO18*(1+$S$21)</f>
+        <f t="shared" si="9"/>
         <v>44516.688841927389</v>
       </c>
       <c r="BQ18" s="4">
-        <f>BP18*(1+$S$21)</f>
+        <f t="shared" si="9"/>
         <v>44961.855730346666</v>
       </c>
       <c r="BR18" s="4">
-        <f>BQ18*(1+$S$21)</f>
+        <f t="shared" si="9"/>
         <v>45411.474287650133</v>
       </c>
       <c r="BS18" s="4">
-        <f>BR18*(1+$S$21)</f>
+        <f t="shared" si="9"/>
         <v>45865.589030526637</v>
       </c>
       <c r="BT18" s="4">
-        <f>BS18*(1+$S$21)</f>
+        <f t="shared" si="9"/>
         <v>46324.244920831901</v>
       </c>
       <c r="BU18" s="4">
-        <f>BT18*(1+$S$21)</f>
+        <f t="shared" si="9"/>
         <v>46787.487370040224</v>
       </c>
       <c r="BV18" s="4">
-        <f>BU18*(1+$S$21)</f>
+        <f t="shared" si="9"/>
         <v>47255.36224374063</v>
       </c>
       <c r="BW18" s="4">
-        <f>BV18*(1+$S$21)</f>
+        <f t="shared" si="9"/>
         <v>47727.915866178038</v>
       </c>
       <c r="BX18" s="4">
-        <f>BW18*(1+$S$21)</f>
+        <f t="shared" si="9"/>
         <v>48205.195024839821</v>
       </c>
       <c r="BY18" s="4">
-        <f>BX18*(1+$S$21)</f>
+        <f t="shared" si="9"/>
         <v>48687.246975088223</v>
       </c>
       <c r="BZ18" s="4">
-        <f>BY18*(1+$S$21)</f>
+        <f t="shared" si="9"/>
         <v>49174.119444839103</v>
       </c>
       <c r="CA18" s="4">
-        <f>BZ18*(1+$S$21)</f>
+        <f t="shared" si="9"/>
         <v>49665.860639287494</v>
       </c>
       <c r="CB18" s="4">
-        <f>CA18*(1+$S$21)</f>
+        <f t="shared" si="9"/>
         <v>50162.519245680371</v>
       </c>
       <c r="CC18" s="4">
-        <f>CB18*(1+$S$21)</f>
+        <f t="shared" ref="CC18:DJ18" si="10">CB18*(1+$S$21)</f>
         <v>50664.144438137177</v>
       </c>
       <c r="CD18" s="4">
-        <f>CC18*(1+$S$21)</f>
+        <f t="shared" si="10"/>
         <v>51170.785882518547</v>
       </c>
       <c r="CE18" s="4">
-        <f>CD18*(1+$S$21)</f>
+        <f t="shared" si="10"/>
         <v>51682.493741343729</v>
       </c>
       <c r="CF18" s="4">
-        <f>CE18*(1+$S$21)</f>
+        <f t="shared" si="10"/>
         <v>52199.318678757169</v>
       </c>
       <c r="CG18" s="4">
-        <f>CF18*(1+$S$21)</f>
+        <f t="shared" si="10"/>
         <v>52721.31186554474</v>
       </c>
       <c r="CH18" s="4">
-        <f>CG18*(1+$S$21)</f>
+        <f t="shared" si="10"/>
         <v>53248.524984200187</v>
       </c>
       <c r="CI18" s="4">
-        <f>CH18*(1+$S$21)</f>
+        <f t="shared" si="10"/>
         <v>53781.010234042187</v>
       </c>
       <c r="CJ18" s="4">
-        <f>CI18*(1+$S$21)</f>
+        <f t="shared" si="10"/>
         <v>54318.820336382611</v>
       </c>
       <c r="CK18" s="4">
-        <f>CJ18*(1+$S$21)</f>
+        <f t="shared" si="10"/>
         <v>54862.008539746435</v>
       </c>
       <c r="CL18" s="4">
-        <f>CK18*(1+$S$21)</f>
+        <f t="shared" si="10"/>
         <v>55410.628625143901</v>
       </c>
       <c r="CM18" s="4">
-        <f>CL18*(1+$S$21)</f>
+        <f t="shared" si="10"/>
         <v>55964.734911395339</v>
       </c>
       <c r="CN18" s="4">
-        <f>CM18*(1+$S$21)</f>
+        <f t="shared" si="10"/>
         <v>56524.382260509294</v>
       </c>
       <c r="CO18" s="4">
-        <f>CN18*(1+$S$21)</f>
+        <f t="shared" si="10"/>
         <v>57089.626083114388</v>
       </c>
       <c r="CP18" s="4">
-        <f>CO18*(1+$S$21)</f>
+        <f t="shared" si="10"/>
         <v>57660.522343945529</v>
       </c>
       <c r="CQ18" s="4">
-        <f>CP18*(1+$S$21)</f>
+        <f t="shared" si="10"/>
         <v>58237.127567384989</v>
       </c>
       <c r="CR18" s="4">
-        <f>CQ18*(1+$S$21)</f>
+        <f t="shared" si="10"/>
         <v>58819.498843058842</v>
       </c>
       <c r="CS18" s="4">
-        <f>CR18*(1+$S$21)</f>
+        <f t="shared" si="10"/>
         <v>59407.693831489429</v>
       </c>
       <c r="CT18" s="4">
-        <f>CS18*(1+$S$21)</f>
+        <f t="shared" si="10"/>
         <v>60001.770769804323</v>
       </c>
       <c r="CU18" s="4">
-        <f>CT18*(1+$S$21)</f>
+        <f t="shared" si="10"/>
         <v>60601.78847750237</v>
       </c>
       <c r="CV18" s="4">
-        <f>CU18*(1+$S$21)</f>
+        <f t="shared" si="10"/>
         <v>61207.806362277392</v>
       </c>
       <c r="CW18" s="4">
-        <f>CV18*(1+$S$21)</f>
+        <f t="shared" si="10"/>
         <v>61819.884425900163</v>
       </c>
       <c r="CX18" s="4">
-        <f>CW18*(1+$S$21)</f>
+        <f t="shared" si="10"/>
         <v>62438.083270159164</v>
       </c>
       <c r="CY18" s="4">
-        <f>CX18*(1+$S$21)</f>
+        <f t="shared" si="10"/>
         <v>63062.464102860758</v>
       </c>
       <c r="CZ18" s="4">
-        <f>CY18*(1+$S$21)</f>
+        <f t="shared" si="10"/>
         <v>63693.08874388937</v>
       </c>
       <c r="DA18" s="4">
-        <f>CZ18*(1+$S$21)</f>
+        <f t="shared" si="10"/>
         <v>64330.019631328265</v>
       </c>
       <c r="DB18" s="4">
-        <f>DA18*(1+$S$21)</f>
+        <f t="shared" si="10"/>
         <v>64973.31982764155</v>
       </c>
       <c r="DC18" s="4">
-        <f>DB18*(1+$S$21)</f>
+        <f t="shared" si="10"/>
         <v>65623.053025917965</v>
       </c>
       <c r="DD18" s="4">
-        <f>DC18*(1+$S$21)</f>
+        <f t="shared" si="10"/>
         <v>66279.28355617715</v>
       </c>
       <c r="DE18" s="4">
-        <f>DD18*(1+$S$21)</f>
+        <f t="shared" si="10"/>
         <v>66942.076391738927</v>
       </c>
       <c r="DF18" s="4">
-        <f>DE18*(1+$S$21)</f>
+        <f t="shared" si="10"/>
         <v>67611.49715565631</v>
       </c>
       <c r="DG18" s="4">
-        <f>DF18*(1+$S$21)</f>
+        <f t="shared" si="10"/>
         <v>68287.61212721288</v>
       </c>
       <c r="DH18" s="4">
-        <f>DG18*(1+$S$21)</f>
+        <f t="shared" si="10"/>
         <v>68970.48824848501</v>
       </c>
       <c r="DI18" s="4">
-        <f>DH18*(1+$S$21)</f>
+        <f t="shared" si="10"/>
         <v>69660.193130969856</v>
       </c>
       <c r="DJ18" s="4">
-        <f>DI18*(1+$S$21)</f>
+        <f t="shared" si="10"/>
         <v>70356.795062279562</v>
       </c>
     </row>
@@ -1615,19 +1615,19 @@
         <v>18931.64</v>
       </c>
       <c r="M19" s="2">
-        <f t="shared" ref="M19:P19" si="8">L19*0.98</f>
+        <f t="shared" ref="M19:P19" si="11">L19*0.98</f>
         <v>18553.0072</v>
       </c>
       <c r="N19" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>18181.947056000001</v>
       </c>
       <c r="O19" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>17818.308114880001</v>
       </c>
       <c r="P19" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>17461.941952582401</v>
       </c>
     </row>
@@ -1636,27 +1636,27 @@
         <v>25</v>
       </c>
       <c r="K20" s="5">
-        <f>K18/K19</f>
+        <f t="shared" ref="K20:P20" si="12">K18/K19</f>
         <v>0.88922248679987581</v>
       </c>
       <c r="L20" s="5">
-        <f>L18/L19</f>
+        <f t="shared" si="12"/>
         <v>0.9464552167693866</v>
       </c>
       <c r="M20" s="5">
-        <f>M18/M19</f>
+        <f t="shared" si="12"/>
         <v>1.0683896969431459</v>
       </c>
       <c r="N20" s="5">
-        <f>N18/N19</f>
+        <f t="shared" si="12"/>
         <v>1.2036334700301736</v>
       </c>
       <c r="O20" s="5">
-        <f>O18/O19</f>
+        <f t="shared" si="12"/>
         <v>1.3535326196563144</v>
       </c>
       <c r="P20" s="5">
-        <f>P18/P19</f>
+        <f t="shared" si="12"/>
         <v>1.519563583459498</v>
       </c>
       <c r="R20" s="2" t="s">
@@ -1680,27 +1680,27 @@
         <v>26</v>
       </c>
       <c r="K22" s="7" t="e">
-        <f>K4/J4-1</f>
+        <f t="shared" ref="K22:P22" si="13">K4/J4-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L22" s="7">
-        <f>L4/K4-1</f>
+        <f t="shared" si="13"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="M22" s="7">
-        <f>M4/L4-1</f>
+        <f t="shared" si="13"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="N22" s="7">
-        <f>N4/M4-1</f>
+        <f t="shared" si="13"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="O22" s="7">
-        <f>O4/N4-1</f>
+        <f t="shared" si="13"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="P22" s="7">
-        <f>P4/O4-1</f>
+        <f t="shared" si="13"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="R22" s="2" t="s">
@@ -1732,19 +1732,19 @@
         <v>0.40151689730517109</v>
       </c>
       <c r="M23" s="8">
-        <f t="shared" ref="M23:P23" si="9">L23*1.005</f>
+        <f t="shared" ref="M23:P23" si="14">L23*1.005</f>
         <v>0.40352448179169692</v>
       </c>
       <c r="N23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.40554210420065534</v>
       </c>
       <c r="O23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.4075698147216586</v>
       </c>
       <c r="P23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.40960766379526686</v>
       </c>
       <c r="R23" s="4" t="s">
@@ -1760,27 +1760,27 @@
         <v>28</v>
       </c>
       <c r="K24" s="8">
-        <f>K13/K4</f>
+        <f t="shared" ref="K24:P24" si="15">K13/K4</f>
         <v>0.146081573197378</v>
       </c>
       <c r="L24" s="8">
-        <f>L13/L4</f>
+        <f t="shared" si="15"/>
         <v>0.15061354697742163</v>
       </c>
       <c r="M24" s="8">
-        <f>M13/M4</f>
+        <f t="shared" si="15"/>
         <v>0.15513016496722509</v>
       </c>
       <c r="N24" s="8">
-        <f>N13/N4</f>
+        <f t="shared" si="15"/>
         <v>0.15963173054442811</v>
       </c>
       <c r="O24" s="8">
-        <f>O13/O4</f>
+        <f t="shared" si="15"/>
         <v>0.1641185448019937</v>
       </c>
       <c r="P24" s="8">
-        <f>P13/P4</f>
+        <f t="shared" si="15"/>
         <v>0.16859090657479853</v>
       </c>
       <c r="R24" s="2" t="s">
@@ -1813,25 +1813,25 @@
         <v>0.25090335032774941</v>
       </c>
       <c r="M25" s="8">
-        <f t="shared" ref="M25:P25" si="10">L25*0.99</f>
+        <f t="shared" ref="M25:P25" si="16">L25*0.99</f>
         <v>0.24839431682447191</v>
       </c>
       <c r="N25" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.2459103736562272</v>
       </c>
       <c r="O25" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.24345126991966493</v>
       </c>
       <c r="P25" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.24101675722046828</v>
       </c>
       <c r="R25" s="2"/>
       <c r="S25" s="8">
         <f>S24/Main!M3-1</f>
-        <v>0.29272390481396826</v>
+        <v>0.32587067160407002</v>
       </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.2">

--- a/BABA.xlsx
+++ b/BABA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218A56C5-9A32-46F8-8537-3AA648DBE42B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28713DF7-6C67-45B1-B9A7-37D9A9B1A324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="1890" windowWidth="22620" windowHeight="13140" xr2:uid="{23A73D2F-BF64-4B2C-9A6B-330C60ED7DBF}"/>
+    <workbookView xWindow="2175" yWindow="465" windowWidth="20925" windowHeight="15015" activeTab="1" xr2:uid="{23A73D2F-BF64-4B2C-9A6B-330C60ED7DBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -190,6 +190,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -253,12 +256,12 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -715,83 +718,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA65699E-D507-4BE7-B873-888DB36189B3}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="11"/>
+    <col min="1" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="10"/>
+      <c r="A1" s="9"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="M3" s="5">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="10" t="s">
         <v>1</v>
       </c>
       <c r="M4" s="2">
         <f>19318/8</f>
         <v>2414.75</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="10" t="s">
         <v>2</v>
       </c>
       <c r="M5" s="2">
         <f>M4*M3</f>
-        <v>282525.75</v>
+        <v>306673.25</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="10" t="s">
         <v>3</v>
       </c>
       <c r="M6" s="2">
         <f>20.1+31.53+7.4+27.86+6.03</f>
         <v>92.92</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="10" t="s">
         <v>4</v>
       </c>
       <c r="M7" s="2">
         <f>6.7+6.9+16.9+4.9+2.4</f>
         <v>37.799999999999997</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="10" t="s">
         <v>5</v>
       </c>
       <c r="M8" s="2">
         <f>M5+M6-M7</f>
-        <v>282580.87</v>
+        <v>306728.37</v>
       </c>
     </row>
   </sheetData>
@@ -803,11 +806,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAAE1115-5B04-4E2D-8D07-DB8D1E8FDB42}">
   <dimension ref="A1:DJ33"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R24" sqref="R24"/>
+      <selection pane="bottomRight" activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1662,7 +1665,7 @@
       <c r="R20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S20" s="6">
+      <c r="S20" s="7">
         <v>0.02</v>
       </c>
     </row>
@@ -1670,7 +1673,7 @@
       <c r="R21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="S21" s="6">
+      <c r="S21" s="7">
         <v>0.01</v>
       </c>
     </row>
@@ -1679,34 +1682,34 @@
       <c r="B22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K22" s="7" t="e">
+      <c r="K22" s="6" t="e">
         <f t="shared" ref="K22:P22" si="13">K4/J4-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="6">
         <f t="shared" si="13"/>
         <v>6.0000000000000053E-2</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="6">
         <f t="shared" si="13"/>
         <v>6.0000000000000053E-2</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="6">
         <f t="shared" si="13"/>
         <v>6.0000000000000053E-2</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O22" s="6">
         <f t="shared" si="13"/>
         <v>6.0000000000000053E-2</v>
       </c>
-      <c r="P22" s="7">
+      <c r="P22" s="6">
         <f t="shared" si="13"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="R22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S22" s="6">
+      <c r="S22" s="11">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
@@ -1723,34 +1726,34 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="8">
+      <c r="K23" s="7">
         <f>K6/K4</f>
         <v>0.39951930080116532</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23" s="7">
         <f>K23*1.005</f>
         <v>0.40151689730517109</v>
       </c>
-      <c r="M23" s="8">
+      <c r="M23" s="7">
         <f t="shared" ref="M23:P23" si="14">L23*1.005</f>
         <v>0.40352448179169692</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N23" s="7">
         <f t="shared" si="14"/>
         <v>0.40554210420065534</v>
       </c>
-      <c r="O23" s="8">
+      <c r="O23" s="7">
         <f t="shared" si="14"/>
         <v>0.4075698147216586</v>
       </c>
-      <c r="P23" s="8">
+      <c r="P23" s="7">
         <f t="shared" si="14"/>
         <v>0.40960766379526686</v>
       </c>
       <c r="R23" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="S23" s="9">
+      <c r="S23" s="8">
         <f>NPV(S22,L18:XFD18)+Main!M6-Main!M7</f>
         <v>374592.60589794361</v>
       </c>
@@ -1759,27 +1762,27 @@
       <c r="B24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="7">
         <f t="shared" ref="K24:P24" si="15">K13/K4</f>
         <v>0.146081573197378</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24" s="7">
         <f t="shared" si="15"/>
         <v>0.15061354697742163</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M24" s="7">
         <f t="shared" si="15"/>
         <v>0.15513016496722509</v>
       </c>
-      <c r="N24" s="8">
+      <c r="N24" s="7">
         <f t="shared" si="15"/>
         <v>0.15963173054442811</v>
       </c>
-      <c r="O24" s="8">
+      <c r="O24" s="7">
         <f t="shared" si="15"/>
         <v>0.1641185448019937</v>
       </c>
-      <c r="P24" s="8">
+      <c r="P24" s="7">
         <f t="shared" si="15"/>
         <v>0.16859090657479853</v>
       </c>
@@ -1804,34 +1807,34 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="8">
+      <c r="K25" s="7">
         <f>K12/K4</f>
         <v>0.2534377276037873</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L25" s="7">
         <f>K25*0.99</f>
         <v>0.25090335032774941</v>
       </c>
-      <c r="M25" s="8">
+      <c r="M25" s="7">
         <f t="shared" ref="M25:P25" si="16">L25*0.99</f>
         <v>0.24839431682447191</v>
       </c>
-      <c r="N25" s="8">
+      <c r="N25" s="7">
         <f t="shared" si="16"/>
         <v>0.2459103736562272</v>
       </c>
-      <c r="O25" s="8">
+      <c r="O25" s="7">
         <f t="shared" si="16"/>
         <v>0.24345126991966493</v>
       </c>
-      <c r="P25" s="8">
+      <c r="P25" s="7">
         <f t="shared" si="16"/>
         <v>0.24101675722046828</v>
       </c>
       <c r="R25" s="2"/>
-      <c r="S25" s="8">
+      <c r="S25" s="7">
         <f>S24/Main!M3-1</f>
-        <v>0.32587067160407002</v>
+        <v>0.22147140612343463</v>
       </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.2">
